--- a/Uploads/vix_index.xlsx
+++ b/Uploads/vix_index.xlsx
@@ -26502,7 +26502,7 @@
         </is>
       </c>
       <c r="B2607" t="n">
-        <v>18.04</v>
+        <v>17.95</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/vix_index.xlsx
+++ b/Uploads/vix_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2607"/>
+  <dimension ref="A1:B2608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26505,6 +26505,16 @@
         <v>18.22</v>
       </c>
     </row>
+    <row r="2608">
+      <c r="A2608" t="inlineStr">
+        <is>
+          <t>2025-05-14</t>
+        </is>
+      </c>
+      <c r="B2608" t="n">
+        <v>18.62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
